--- a/outputs/TIF_Taxes_Diverted_By_Fund.xlsx
+++ b/outputs/TIF_Taxes_Diverted_By_Fund.xlsx
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>17388.230393838</v>
+        <v>21683.9361904972</v>
       </c>
     </row>
     <row r="65">
@@ -1287,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>100696.059606162</v>
+        <v>125572.693809503</v>
       </c>
     </row>
     <row r="66">
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>9041.8345725848</v>
+        <v>19068.7296387063</v>
       </c>
     </row>
     <row r="67">
@@ -1315,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>37816.7754274152</v>
+        <v>79753.4903612937</v>
       </c>
     </row>
     <row r="68">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>86032.3116580934</v>
+        <v>105386.910561649</v>
       </c>
     </row>
     <row r="69">
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>604680.598843232</v>
+        <v>747650.279629641</v>
       </c>
     </row>
     <row r="70">
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>160288.519498674</v>
+        <v>196577.75980871</v>
       </c>
     </row>
     <row r="71">
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>9440.20490291833</v>
+        <v>13227.6073808706</v>
       </c>
     </row>
     <row r="72">
@@ -1385,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>90723.1350970817</v>
+        <v>127121.182619129</v>
       </c>
     </row>
     <row r="73">
@@ -1805,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>17388.230393838</v>
+        <v>21683.9361904972</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>100696.059606162</v>
+        <v>125572.693809503</v>
       </c>
     </row>
     <row r="22">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>9041.8345725848</v>
+        <v>19068.7296387063</v>
       </c>
     </row>
     <row r="21">
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>37816.7754274152</v>
+        <v>79753.4903612937</v>
       </c>
     </row>
     <row r="22">
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>86032.3116580934</v>
+        <v>105386.910561649</v>
       </c>
     </row>
     <row r="21">
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>604680.598843232</v>
+        <v>747650.279629641</v>
       </c>
     </row>
     <row r="22">
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>160288.519498674</v>
+        <v>196577.75980871</v>
       </c>
     </row>
     <row r="23">
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>9440.20490291833</v>
+        <v>13227.6073808706</v>
       </c>
     </row>
     <row r="11">
@@ -2715,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>90723.1350970817</v>
+        <v>127121.182619129</v>
       </c>
     </row>
     <row r="12">
